--- a/biology/Médecine/SOD1/SOD1.xlsx
+++ b/biology/Médecine/SOD1/SOD1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La superoxide dismutase [Cu-Zn] aussi connue comme SOD1 est une enzyme codée par le gène SOD1 situé sur le chromosome 21 humain. Elle appartient a la superfamille des superoxyde dismutases, et est impliquée dans les mécanismes de l'apoptose ainsi que dans la sclérose latérale amyotrophique.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,10 +581,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sclérose latérale amytrophique
-Les souris dépourvues de SOD1 (CuZn-SOD cytosolique) développent une grande quantité de pathologies parmi lesquelles le cancer du foie, une accélération de la perte de masse musculaire avec l'âge, une incidence précoce de la cataracte et une espérance de vie réduite.
+          <t>Sclérose latérale amytrophique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les souris dépourvues de SOD1 (CuZn-SOD cytosolique) développent une grande quantité de pathologies parmi lesquelles le cancer du foie, une accélération de la perte de masse musculaire avec l'âge, une incidence précoce de la cataracte et une espérance de vie réduite.
 Dans la Sclérose latérale amyotrophique (SLA) familiale, les patients présentent dans 20 % des cas des mutations des gènes codants SOD1. Actuellement plus d'une centaine mutations sont connues. Pour permettre d'étudier la maladie, des modèles souris ont été développés avec des surexpressions de la protéine SOD1 humaine muté (Gurney et al, 1994) , et donnent un gain de fonction toxique à la protéine. Ces souris développent des symptômes assimilés à la SLA.
-Syndrome de Down
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SOD1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/SOD1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Syndrome de Down</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le syndrome de Down est causée par la triplication du chromosome 21. Le stress oxydant lié à cette maladie est lié à la multiplication et donc à l'expression exacerbée du gène SOD1 situé sur le chromosome 21. Cette expression anormale conduit en particulier à une surproduction de peroxyde d'hydrogène, endommageant ainsi les cellules.
  Portail de la biochimie   Portail de la médecine                    
 ↑ a b et c GRCh38: Ensembl release 89: ENSG00000142168 - Ensembl, May 2017
